--- a/Data/données_piezo.xlsx
+++ b/Data/données_piezo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef Tfifhq\Documents\Supports de cours , projets et examens\Groundwater level prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef Tfifhq\Documents\Supports de cours , projets et examens\Groundwater-Management-under-Climate-Change\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3800DD2-F734-48DD-987D-77AB0A78A17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E8FCD7-1BC8-4F83-A993-D863156144C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{C05D603F-57DD-4101-8CB6-B133AD280A78}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15480" xr2:uid="{C05D603F-57DD-4101-8CB6-B133AD280A78}"/>
   </bookViews>
   <sheets>
     <sheet name="NS_puits" sheetId="1" r:id="rId1"/>
@@ -1099,10 +1099,10 @@
   <dimension ref="A1:CY46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="CF20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="CO38" sqref="CO38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,7 +1941,10 @@
       <c r="CS3" s="7">
         <v>14.86</v>
       </c>
-      <c r="CT3" s="7"/>
+      <c r="CT3" s="7">
+        <f>(CU3+CS3)/2</f>
+        <v>14.54</v>
+      </c>
       <c r="CU3" s="7">
         <v>14.22</v>
       </c>
@@ -2704,7 +2707,10 @@
       <c r="CS6" s="7">
         <v>13.24</v>
       </c>
-      <c r="CT6" s="7"/>
+      <c r="CT6" s="7">
+        <f t="shared" ref="CT4:CT44" si="0">(CU6+CS6)/2</f>
+        <v>13.690000000000001</v>
+      </c>
       <c r="CU6" s="7">
         <v>14.14</v>
       </c>
@@ -2927,7 +2933,10 @@
       <c r="CS7" s="7">
         <v>7.7</v>
       </c>
-      <c r="CT7" s="7"/>
+      <c r="CT7" s="7">
+        <f t="shared" si="0"/>
+        <v>8.15</v>
+      </c>
       <c r="CU7" s="7">
         <v>8.6</v>
       </c>
@@ -3375,7 +3384,10 @@
       <c r="CS9" s="7">
         <v>12.59</v>
       </c>
-      <c r="CT9" s="7"/>
+      <c r="CT9" s="7">
+        <f t="shared" si="0"/>
+        <v>11.295</v>
+      </c>
       <c r="CU9" s="7">
         <v>10</v>
       </c>
@@ -3672,7 +3684,10 @@
       <c r="CS10" s="7">
         <v>24.6</v>
       </c>
-      <c r="CT10" s="7"/>
+      <c r="CT10" s="7">
+        <f t="shared" si="0"/>
+        <v>24.865000000000002</v>
+      </c>
       <c r="CU10" s="7">
         <v>25.13</v>
       </c>
@@ -4627,7 +4642,10 @@
       <c r="CS14" s="7">
         <v>42.2</v>
       </c>
-      <c r="CT14" s="7"/>
+      <c r="CT14" s="7">
+        <f t="shared" si="0"/>
+        <v>44.375</v>
+      </c>
       <c r="CU14" s="7">
         <v>46.55</v>
       </c>
@@ -5300,7 +5318,10 @@
       <c r="CS17" s="8">
         <v>23.6</v>
       </c>
-      <c r="CT17" s="8"/>
+      <c r="CT17" s="7">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
       <c r="CU17" s="8"/>
       <c r="CV17" s="8"/>
       <c r="CW17" s="8"/>
@@ -5519,7 +5540,7 @@
       <c r="CQ18" s="8"/>
       <c r="CR18" s="8"/>
       <c r="CS18" s="8"/>
-      <c r="CT18" s="8"/>
+      <c r="CT18" s="7"/>
       <c r="CU18" s="8"/>
       <c r="CV18" s="8"/>
       <c r="CW18" s="8"/>
@@ -5756,7 +5777,7 @@
       <c r="CQ19" s="8"/>
       <c r="CR19" s="8"/>
       <c r="CS19" s="8"/>
-      <c r="CT19" s="8"/>
+      <c r="CT19" s="7"/>
       <c r="CU19" s="8"/>
       <c r="CV19" s="8"/>
       <c r="CW19" s="8"/>
@@ -5973,7 +5994,7 @@
       <c r="CQ20" s="8"/>
       <c r="CR20" s="8"/>
       <c r="CS20" s="8"/>
-      <c r="CT20" s="8"/>
+      <c r="CT20" s="7"/>
       <c r="CU20" s="8"/>
       <c r="CV20" s="8"/>
       <c r="CW20" s="8"/>
@@ -6220,7 +6241,10 @@
       <c r="CS21" s="8">
         <v>18.2</v>
       </c>
-      <c r="CT21" s="8"/>
+      <c r="CT21" s="7">
+        <f t="shared" si="0"/>
+        <v>9.1</v>
+      </c>
       <c r="CU21" s="8"/>
       <c r="CV21" s="8"/>
       <c r="CW21" s="8"/>
@@ -6487,7 +6511,7 @@
       <c r="CQ22" s="8"/>
       <c r="CR22" s="8"/>
       <c r="CS22" s="8"/>
-      <c r="CT22" s="8"/>
+      <c r="CT22" s="7"/>
       <c r="CU22" s="8"/>
       <c r="CV22" s="8"/>
       <c r="CW22" s="8"/>
@@ -6760,7 +6784,10 @@
       <c r="CS23" s="7">
         <v>27.1</v>
       </c>
-      <c r="CT23" s="7"/>
+      <c r="CT23" s="7">
+        <f t="shared" si="0"/>
+        <v>29.475000000000001</v>
+      </c>
       <c r="CU23" s="7">
         <v>31.85</v>
       </c>
@@ -7262,7 +7289,10 @@
         <v>20.239999999999998</v>
       </c>
       <c r="CS25" s="29"/>
-      <c r="CT25" s="29"/>
+      <c r="CT25" s="7">
+        <f t="shared" si="0"/>
+        <v>12.54</v>
+      </c>
       <c r="CU25" s="29">
         <v>25.08</v>
       </c>
@@ -7509,7 +7539,10 @@
       <c r="CS26" s="29">
         <v>25.65</v>
       </c>
-      <c r="CT26" s="29"/>
+      <c r="CT26" s="7">
+        <f t="shared" si="0"/>
+        <v>12.824999999999999</v>
+      </c>
       <c r="CU26" s="29"/>
       <c r="CV26" s="29"/>
       <c r="CW26" s="29"/>
@@ -7706,7 +7739,7 @@
       <c r="CQ27" s="8"/>
       <c r="CR27" s="8"/>
       <c r="CS27" s="8"/>
-      <c r="CT27" s="8"/>
+      <c r="CT27" s="7"/>
       <c r="CU27" s="8"/>
       <c r="CV27" s="8"/>
       <c r="CW27" s="8"/>
@@ -7975,7 +8008,10 @@
       <c r="CS28" s="8">
         <v>18.600000000000001</v>
       </c>
-      <c r="CT28" s="8"/>
+      <c r="CT28" s="7">
+        <f t="shared" si="0"/>
+        <v>18.670000000000002</v>
+      </c>
       <c r="CU28" s="8">
         <v>18.739999999999998</v>
       </c>
@@ -8236,7 +8272,10 @@
       <c r="CS29" s="8">
         <v>13.56</v>
       </c>
-      <c r="CT29" s="8"/>
+      <c r="CT29" s="7">
+        <f t="shared" si="0"/>
+        <v>12.355</v>
+      </c>
       <c r="CU29" s="8">
         <v>11.15</v>
       </c>
@@ -8487,7 +8526,7 @@
       <c r="CQ30" s="8"/>
       <c r="CR30" s="8"/>
       <c r="CS30" s="8"/>
-      <c r="CT30" s="8"/>
+      <c r="CT30" s="7"/>
       <c r="CU30" s="8"/>
       <c r="CV30" s="8"/>
       <c r="CW30" s="8"/>
@@ -8682,7 +8721,7 @@
       <c r="CQ31" s="8"/>
       <c r="CR31" s="8"/>
       <c r="CS31" s="8"/>
-      <c r="CT31" s="8"/>
+      <c r="CT31" s="7"/>
       <c r="CU31" s="8"/>
       <c r="CV31" s="8"/>
       <c r="CW31" s="8"/>
@@ -8973,7 +9012,10 @@
       <c r="CS32" s="8">
         <v>11.28</v>
       </c>
-      <c r="CT32" s="8"/>
+      <c r="CT32" s="7">
+        <f t="shared" si="0"/>
+        <v>12.08</v>
+      </c>
       <c r="CU32" s="8">
         <v>12.88</v>
       </c>
@@ -9216,7 +9258,7 @@
       <c r="CQ33" s="8"/>
       <c r="CR33" s="8"/>
       <c r="CS33" s="8"/>
-      <c r="CT33" s="8"/>
+      <c r="CT33" s="7"/>
       <c r="CU33" s="8"/>
       <c r="CV33" s="8"/>
       <c r="CW33" s="8"/>
@@ -9459,7 +9501,10 @@
       <c r="CS34" s="7">
         <v>18.52</v>
       </c>
-      <c r="CT34" s="7"/>
+      <c r="CT34" s="7">
+        <f t="shared" si="0"/>
+        <v>9.26</v>
+      </c>
       <c r="CU34" s="7"/>
       <c r="CV34" s="7"/>
       <c r="CW34" s="7"/>
@@ -9692,7 +9737,7 @@
       <c r="CQ35" s="8"/>
       <c r="CR35" s="8"/>
       <c r="CS35" s="8"/>
-      <c r="CT35" s="8"/>
+      <c r="CT35" s="7"/>
       <c r="CU35" s="8"/>
       <c r="CV35" s="8"/>
       <c r="CW35" s="8"/>
@@ -9955,7 +10000,10 @@
       <c r="CS36" s="8">
         <v>23.06</v>
       </c>
-      <c r="CT36" s="8"/>
+      <c r="CT36" s="7">
+        <f t="shared" si="0"/>
+        <v>23.979999999999997</v>
+      </c>
       <c r="CU36" s="8">
         <v>24.9</v>
       </c>
@@ -10226,7 +10274,10 @@
         <v>12.13</v>
       </c>
       <c r="CS37" s="8"/>
-      <c r="CT37" s="8"/>
+      <c r="CT37" s="7">
+        <f t="shared" si="0"/>
+        <v>10.025</v>
+      </c>
       <c r="CU37" s="8">
         <v>20.05</v>
       </c>
@@ -10461,7 +10512,7 @@
       <c r="CQ38" s="8"/>
       <c r="CR38" s="8"/>
       <c r="CS38" s="8"/>
-      <c r="CT38" s="8"/>
+      <c r="CT38" s="7"/>
       <c r="CU38" s="8"/>
       <c r="CV38" s="8"/>
       <c r="CW38" s="8"/>
@@ -10682,7 +10733,7 @@
       <c r="CQ39" s="8"/>
       <c r="CR39" s="8"/>
       <c r="CS39" s="8"/>
-      <c r="CT39" s="8"/>
+      <c r="CT39" s="7"/>
       <c r="CU39" s="8"/>
       <c r="CV39" s="8"/>
       <c r="CW39" s="8"/>
@@ -10821,7 +10872,7 @@
       <c r="CQ40" s="8"/>
       <c r="CR40" s="8"/>
       <c r="CS40" s="8"/>
-      <c r="CT40" s="8"/>
+      <c r="CT40" s="7"/>
       <c r="CU40" s="8"/>
       <c r="CV40" s="8"/>
       <c r="CW40" s="8"/>
@@ -11177,7 +11228,7 @@
         <v>27.36</v>
       </c>
       <c r="CS42" s="8"/>
-      <c r="CT42" s="8"/>
+      <c r="CT42" s="7"/>
       <c r="CU42" s="8"/>
       <c r="CV42" s="8">
         <v>20.079999999999998</v>
@@ -11408,7 +11459,7 @@
         <v>6.48</v>
       </c>
       <c r="CS43" s="8"/>
-      <c r="CT43" s="8"/>
+      <c r="CT43" s="7"/>
       <c r="CU43" s="8"/>
       <c r="CV43" s="8"/>
       <c r="CW43" s="8"/>
@@ -11693,7 +11744,10 @@
       <c r="CS44" s="8">
         <v>22.1</v>
       </c>
-      <c r="CT44" s="8"/>
+      <c r="CT44" s="7">
+        <f t="shared" si="0"/>
+        <v>11.05</v>
+      </c>
       <c r="CU44" s="8"/>
       <c r="CV44" s="8"/>
       <c r="CW44" s="8"/>
